--- a/_site/Data/SchoolReopeningFall21.xlsx
+++ b/_site/Data/SchoolReopeningFall21.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjHPwobgnprEzUmj7Pelo/C/PQIfQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgoedJcXjrujneoo2T9Epr+0Q54zQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -315,7 +315,7 @@
 Enter the total number of hours. If none, enter 0.</t>
   </si>
   <si>
-    <t>Open Response</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t xml:space="preserve">RAPID Team Modified 
@@ -518,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -551,6 +551,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2733,7 +2736,7 @@
       <c r="A58" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -2771,7 +2774,7 @@
       <c r="A59" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -3283,7 +3286,7 @@
       <c r="A73" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C73" s="4"/>
